--- a/james/experiment_results.xlsx
+++ b/james/experiment_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Workspace/gpt-2-output-dataset/james/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8AE31-D874-6C44-B6B6-0A226AB27843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B62E23-4158-B04F-8474-F214614AC054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{8B6BFD08-CF2D-674A-85AB-AB292BEC6F25}"/>
+    <workbookView xWindow="16460" yWindow="1640" windowWidth="29400" windowHeight="16880" xr2:uid="{8B6BFD08-CF2D-674A-85AB-AB292BEC6F25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="29">
   <si>
     <t>MAUVE</t>
   </si>
@@ -124,12 +124,6 @@
   <si>
     <t>560M-200-400</t>
   </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
 </sst>
 </file>
 
@@ -165,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -253,11 +247,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -297,6 +393,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE17F6-A814-7A47-98F6-134B08F7497B}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +791,7 @@
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -819,37 +926,38 @@
       <c r="W4" s="1">
         <v>-0.97685016319218998</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AJ4" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -880,40 +988,40 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="10"/>
-      <c r="Y5" t="s">
+      <c r="Y5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="Z5" s="2">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="17">
         <v>3.12</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="17">
         <v>0.96</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="17">
         <v>0.46</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="17">
         <v>0.95509999999999995</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="17">
         <v>0.86760000000000004</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="17">
         <v>0.40820000000000001</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="17">
         <v>0.4113</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="17">
         <v>0.15181533372077199</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="17">
         <v>-0.27776913076205101</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="22">
         <v>-0.97685016319218998</v>
       </c>
     </row>
@@ -984,40 +1092,40 @@
       <c r="W6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="Z6" s="2">
         <v>0.1721</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="17">
         <v>6.87</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="17">
         <v>2.23</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="17">
         <v>1.23</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="17">
         <v>0.89929999999999999</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="17">
         <v>0.80100000000000005</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="17">
         <v>0.44750000000000001</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="17">
         <v>0.47320000000000001</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="17">
         <v>0.16452094591826899</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="17">
         <v>-0.249054232038977</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="22">
         <v>-0.991040932865905</v>
       </c>
     </row>
@@ -1088,40 +1196,40 @@
       <c r="W7" s="1">
         <v>-0.991040932865905</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="21" t="s">
         <v>24</v>
       </c>
       <c r="Z7" s="2">
         <v>0.22459999999999999</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="17">
         <v>9.17</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="17">
         <v>2.94</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="17">
         <v>1.59</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="17">
         <v>0.86760000000000004</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="17">
         <v>0.81040000000000001</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="17">
         <v>0.46589999999999998</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="17">
         <v>0.52290000000000003</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="17">
         <v>9.70167861052533E-2</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="17">
         <v>-0.160847055010197</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="22">
         <v>-0.99422174988847301</v>
       </c>
     </row>
@@ -1152,40 +1260,40 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="10"/>
-      <c r="Y8" t="s">
+      <c r="Y8" s="21" t="s">
         <v>25</v>
       </c>
       <c r="Z8" s="2">
         <v>0.27629999999999999</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="17">
         <v>11.42</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="17">
         <v>3.86</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="17">
         <v>2.17</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="17">
         <v>0.83309999999999995</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="17">
         <v>0.81159999999999999</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="17">
         <v>0.47410000000000002</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="17">
         <v>0.53200000000000003</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="17">
         <v>3.27345337665624E-2</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="17">
         <v>-8.4266745507492094E-2</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="22">
         <v>-0.99629654294816195</v>
       </c>
     </row>
@@ -1256,40 +1364,40 @@
       <c r="W9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="Z9" s="2">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="17">
         <v>14.02</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="17">
         <v>4.9800000000000004</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="17">
         <v>2.85</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="17">
         <v>0.79369999999999996</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="17">
         <v>0.80989999999999995</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="17">
         <v>0.50819999999999999</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="17">
         <v>0.5736</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="17">
         <v>0.125362500696518</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="17">
         <v>-0.15893491409485899</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="22">
         <v>-0.99755837520466395</v>
       </c>
     </row>
@@ -1329,44 +1437,44 @@
       <c r="W10" s="1">
         <v>-0.99422174988847301</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="Z10" s="2">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="AA10">
-        <v>25.15</v>
-      </c>
-      <c r="AB10">
-        <v>17.36</v>
-      </c>
-      <c r="AC10">
-        <v>13.66</v>
-      </c>
-      <c r="AD10">
-        <v>0.53410000000000002</v>
-      </c>
-      <c r="AE10">
-        <v>0.85</v>
-      </c>
-      <c r="AF10">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AG10">
-        <v>0.15529999999999999</v>
-      </c>
-      <c r="AH10">
-        <v>0.15076883888305001</v>
-      </c>
-      <c r="AI10">
-        <v>-0.219915996103828</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>-0.99584990233514004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>12.87</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>6.76</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>0.3851</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>0.34298434042637799</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>-0.48375282823779298</v>
+      </c>
+      <c r="AJ10" s="22">
+        <v>-0.97110797794298997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1393,41 +1501,41 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="10"/>
-      <c r="Y11" t="s">
+      <c r="Y11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Z11" s="2">
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="AA11">
-        <v>12.87</v>
-      </c>
-      <c r="AB11">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="AC11">
-        <v>6.76</v>
-      </c>
-      <c r="AD11">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="AE11">
-        <v>0.94310000000000005</v>
-      </c>
-      <c r="AF11">
-        <v>0.38879999999999998</v>
-      </c>
-      <c r="AG11">
-        <v>0.3851</v>
-      </c>
-      <c r="AH11">
-        <v>0.34298434042637799</v>
-      </c>
-      <c r="AI11">
-        <v>-0.48375282823779298</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>-0.97110797794298997</v>
+      <c r="Z11" s="27">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>25.15</v>
+      </c>
+      <c r="AB11" s="24">
+        <v>17.36</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>13.66</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="AE11" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AG11" s="24">
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="AH11" s="24">
+        <v>0.15076883888305001</v>
+      </c>
+      <c r="AI11" s="24">
+        <v>-0.219915996103828</v>
+      </c>
+      <c r="AJ11" s="25">
+        <v>-0.99584990233514004</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -1496,53 +1604,6 @@
       </c>
       <c r="W12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z12">
-        <f>STDEV(Z5:Z11)</f>
-        <v>0.34521614899046871</v>
-      </c>
-      <c r="AA12">
-        <f>STDEV(AA5:AA11)</f>
-        <v>6.9642461048934621</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" ref="AB12:AJ12" si="0">STDEV(AB5:AB11)</f>
-        <v>5.6468453055455585</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="0"/>
-        <v>4.682291868610621</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="0"/>
-        <v>0.13767338678398158</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="0"/>
-        <v>5.0948793153611852E-2</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="0"/>
-        <v>0.12666922052563309</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="0"/>
-        <v>0.14087720421227387</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="0"/>
-        <v>9.5385268786735963E-2</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="0"/>
-        <v>0.12788123379056321</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="0"/>
-        <v>1.0587577342671668E-2</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
@@ -1580,53 +1641,6 @@
       </c>
       <c r="W13" s="1">
         <v>-0.99629654294816195</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13">
-        <f>AVERAGE(Z5:Z11)</f>
-        <v>0.24394285714285716</v>
-      </c>
-      <c r="AA13">
-        <f>AVERAGE(AA5:AA11)</f>
-        <v>11.802857142857144</v>
-      </c>
-      <c r="AB13">
-        <f>AVERAGE(AB5:AB11)</f>
-        <v>5.8742857142857137</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" ref="AC13:AJ13" si="1">AVERAGE(AC5:AC11)</f>
-        <v>4.1028571428571423</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="1"/>
-        <v>0.80341428571428553</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="1"/>
-        <v>0.84194285714285722</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="1"/>
-        <v>0.40338571428571424</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="1"/>
-        <v>0.43619999999999998</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="1"/>
-        <v>0.15217189707382897</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="1"/>
-        <v>-0.2335058431078853</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="1"/>
-        <v>-0.98898937776821771</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -1725,7 +1739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="K16" s="1"/>
       <c r="M16" s="2">
@@ -1789,37 +1803,38 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="16"/>
-      <c r="Z17" s="2" t="s">
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AF17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AH17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AI17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AJ17" s="1" t="s">
+      <c r="AJ17" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1850,40 +1865,40 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="10"/>
-      <c r="Y18" t="s">
+      <c r="Y18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="17">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="17">
         <v>4</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="17">
         <v>1.23</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="17">
         <v>0.94269999999999998</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="17">
         <v>0.77410000000000001</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="17">
         <v>0.22670000000000001</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="17">
         <v>0.26490000000000002</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="17">
         <v>0.124094507580104</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="17">
         <v>-0.15831411949463101</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="22">
         <v>-0.99293858467836604</v>
       </c>
     </row>
@@ -1954,40 +1969,40 @@
       <c r="W19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="17">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="17">
         <v>8.32</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="17">
         <v>2.75</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="17">
         <v>1.43</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="17">
         <v>0.87880000000000003</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="17">
         <v>0.65210000000000001</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="17">
         <v>0.41339999999999999</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="17">
         <v>0.48730000000000001</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="17">
         <v>0.17645139691460901</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="17">
         <v>-0.222183442113529</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19" s="22">
         <v>-0.99236116345416503</v>
       </c>
     </row>
@@ -2058,40 +2073,40 @@
       <c r="W20" s="1">
         <v>-0.99293858467836604</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="17">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="17">
         <v>10.85</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="17">
         <v>3.3</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="17">
         <v>1.62</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="17">
         <v>0.84809999999999997</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="17">
         <v>0.63619999999999999</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="17">
         <v>0.44979999999999998</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="17">
         <v>0.53439999999999999</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="17">
         <v>0.18951189363256901</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="17">
         <v>-0.217722227927337</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AJ20" s="22">
         <v>-0.99472850248325995</v>
       </c>
     </row>
@@ -2122,40 +2137,40 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="10"/>
-      <c r="Y21" t="s">
+      <c r="Y21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="Z21" s="17">
         <v>1.21E-2</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="17">
         <v>14.14</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="17">
         <v>4.53</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="17">
         <v>2.16</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="17">
         <v>0.80200000000000005</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="17">
         <v>0.65359999999999996</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="17">
         <v>0.42809999999999998</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="17">
         <v>0.52129999999999999</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="17">
         <v>4.5049211435821197E-2</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="17">
         <v>-5.8476839757015703E-2</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="22">
         <v>-0.99674066817050999</v>
       </c>
     </row>
@@ -2226,40 +2241,40 @@
       <c r="W22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z22" s="17">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="17">
         <v>18.55</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="17">
         <v>7.03</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="17">
         <v>3.94</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="17">
         <v>0.72740000000000005</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="17">
         <v>0.622</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="17">
         <v>0.49940000000000001</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="17">
         <v>0.57069999999999999</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="17">
         <v>0.113591660857666</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="17">
         <v>-0.12701841815763201</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="22">
         <v>-0.99248094711627299</v>
       </c>
     </row>
@@ -2330,44 +2345,44 @@
       <c r="W23" s="1">
         <v>-0.99236116345416503</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="Z23" s="17">
         <v>5.3E-3</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="17">
         <v>22.69</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="17">
         <v>18.46</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="17">
         <v>15.96</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="17">
         <v>0.52980000000000005</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="17">
         <v>0.90110000000000001</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="17">
         <v>0.1133</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="17">
         <v>0.18</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="17">
         <v>5.2076553752526199E-2</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" s="17">
         <v>-8.8280233513569506E-2</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AJ23" s="22">
         <v>-0.98343304663449005</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>11</v>
       </c>
@@ -2394,40 +2409,40 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="10"/>
-      <c r="Y24" t="s">
+      <c r="Y24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z24" s="24">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="24">
         <v>38.520000000000003</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="24">
         <v>31.73</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="24">
         <v>28.4</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="24">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="24">
         <v>0.78890000000000005</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="24">
         <v>0.1681</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="24">
         <v>0.21129999999999999</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="24">
         <v>0.32730446283279602</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" s="24">
         <v>-0.33753791316193898</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AJ24" s="25">
         <v>-0.99559370232185795</v>
       </c>
     </row>
@@ -2497,53 +2512,6 @@
       </c>
       <c r="W25" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25">
-        <f>STDEV(Z18:Z24)</f>
-        <v>3.2566496075977634E-2</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" ref="AA25:AJ25" si="2">STDEV(AA18:AA24)</f>
-        <v>11.457903905373007</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="2"/>
-        <v>11.230444379114344</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="2"/>
-        <v>10.55553048451492</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="2"/>
-        <v>0.22747730603711891</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="2"/>
-        <v>0.10495750614052322</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="2"/>
-        <v>0.15462375841592604</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="2"/>
-        <v>0.16914840623941224</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="2"/>
-        <v>9.6806875483185145E-2</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="2"/>
-        <v>9.4968837149509627E-2</v>
-      </c>
-      <c r="AJ25">
-        <f t="shared" si="2"/>
-        <v>4.3752325812071178E-3</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
@@ -2581,53 +2549,6 @@
       </c>
       <c r="W26" s="1">
         <v>-0.99472850248325995</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z26">
-        <f>AVERAGE(Z18:Z24)</f>
-        <v>2.06E-2</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" ref="AA26:AJ26" si="3">AVERAGE(AA18:AA24)</f>
-        <v>16.724285714285713</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="3"/>
-        <v>9.8614285714285721</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="3"/>
-        <v>7.7271428571428578</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="3"/>
-        <v>0.71841428571428556</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="3"/>
-        <v>0.71828571428571431</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="3"/>
-        <v>0.32839999999999997</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="3"/>
-        <v>0.39570000000000005</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="3"/>
-        <v>0.14686852671515593</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" si="3"/>
-        <v>-0.17279045630366477</v>
-      </c>
-      <c r="AJ26">
-        <f t="shared" si="3"/>
-        <v>-0.99261094497984603</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
@@ -2859,7 +2780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="K32" s="1"/>
       <c r="M32" s="2">
@@ -2923,37 +2844,38 @@
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
       <c r="W33" s="16"/>
-      <c r="Z33" s="2" t="s">
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AA33" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AB33" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AC33" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AD33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AE33" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AF33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AG33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AH33" t="s">
+      <c r="AH33" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AI33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AJ33" s="1" t="s">
+      <c r="AJ33" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2984,40 +2906,40 @@
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="10"/>
-      <c r="Y34" t="s">
+      <c r="Y34" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z34" s="17">
         <v>0.69279999999999997</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="17">
         <v>5.95</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" s="17">
         <v>2.1</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="17">
         <v>0.91049999999999998</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="17">
         <v>0.85580000000000001</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="17">
         <v>0.309</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="17">
         <v>0.2767</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="17">
         <v>0.20159395125913501</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" s="17">
         <v>-0.31355090179990203</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AJ34" s="22">
         <v>-0.98648118893588099</v>
       </c>
     </row>
@@ -3088,40 +3010,40 @@
       <c r="W35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="Z35" s="17">
         <v>0.3286</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="17">
         <v>10.15</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" s="17">
         <v>3.65</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="17">
         <v>1.89</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="17">
         <v>0.84930000000000005</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="17">
         <v>0.80389999999999995</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" s="17">
         <v>0.35880000000000001</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="17">
         <v>0.3846</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" s="17">
         <v>0.13550711892101899</v>
       </c>
-      <c r="AI35">
+      <c r="AI35" s="17">
         <v>-0.215585100210473</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AJ35" s="22">
         <v>-0.99278738816108603</v>
       </c>
     </row>
@@ -3192,40 +3114,40 @@
       <c r="W36" s="1">
         <v>-0.98648118893588099</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y36" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="Z36" s="17">
         <v>0.2107</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="17">
         <v>13.58</v>
       </c>
-      <c r="AB36">
+      <c r="AB36" s="17">
         <v>4.93</v>
       </c>
-      <c r="AC36">
+      <c r="AC36" s="17">
         <v>2.56</v>
       </c>
-      <c r="AD36">
+      <c r="AD36" s="17">
         <v>0.80059999999999998</v>
       </c>
-      <c r="AE36">
+      <c r="AE36" s="17">
         <v>0.80710000000000004</v>
       </c>
-      <c r="AF36">
+      <c r="AF36" s="17">
         <v>0.37609999999999999</v>
       </c>
-      <c r="AG36">
+      <c r="AG36" s="17">
         <v>0.40939999999999999</v>
       </c>
-      <c r="AH36">
+      <c r="AH36" s="17">
         <v>5.31052088973634E-2</v>
       </c>
-      <c r="AI36">
+      <c r="AI36" s="17">
         <v>-0.117459326993145</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AJ36" s="22">
         <v>-0.99462355189863405</v>
       </c>
     </row>
@@ -3256,40 +3178,40 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="10"/>
-      <c r="Y37" t="s">
+      <c r="Y37" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="Z37" s="17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="17">
         <v>16.07</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" s="17">
         <v>6.29</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="17">
         <v>3.69</v>
       </c>
-      <c r="AD37">
+      <c r="AD37" s="17">
         <v>0.75749999999999995</v>
       </c>
-      <c r="AE37">
+      <c r="AE37" s="17">
         <v>0.80669999999999997</v>
       </c>
-      <c r="AF37">
+      <c r="AF37" s="17">
         <v>0.37790000000000001</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" s="17">
         <v>0.42220000000000002</v>
       </c>
-      <c r="AH37">
+      <c r="AH37" s="17">
         <v>3.2343892696636997E-2</v>
       </c>
-      <c r="AI37">
+      <c r="AI37" s="17">
         <v>-7.27631765180239E-2</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="AJ37" s="22">
         <v>-0.99377988921245497</v>
       </c>
     </row>
@@ -3360,40 +3282,40 @@
       <c r="W38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y38" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Z38" s="5">
+      <c r="Z38" s="17">
         <v>2.18E-2</v>
       </c>
-      <c r="AA38" s="6">
+      <c r="AA38" s="17">
         <v>22.37</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AB38" s="17">
         <v>10.48</v>
       </c>
-      <c r="AC38" s="6">
+      <c r="AC38" s="17">
         <v>6.82</v>
       </c>
-      <c r="AD38" s="6">
+      <c r="AD38" s="17">
         <v>0.64749999999999996</v>
       </c>
-      <c r="AE38" s="6">
+      <c r="AE38" s="17">
         <v>0.82120000000000004</v>
       </c>
-      <c r="AF38" s="6">
+      <c r="AF38" s="17">
         <v>0.4103</v>
       </c>
-      <c r="AG38" s="6">
+      <c r="AG38" s="17">
         <v>0.47170000000000001</v>
       </c>
-      <c r="AH38" s="6">
+      <c r="AH38" s="17">
         <v>9.0269080776010906E-3</v>
       </c>
-      <c r="AI38" s="6">
+      <c r="AI38" s="17">
         <v>-2.9189054706200899E-2</v>
       </c>
-      <c r="AJ38" s="7">
+      <c r="AJ38" s="22">
         <v>-0.994865460162488</v>
       </c>
     </row>
@@ -3464,44 +3386,44 @@
       <c r="W39" s="1">
         <v>-0.99278738816108603</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y39" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="Z39" s="17">
         <v>0.51639999999999997</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="17">
         <v>22.94</v>
       </c>
-      <c r="AB39">
+      <c r="AB39" s="17">
         <v>17.91</v>
       </c>
-      <c r="AC39">
+      <c r="AC39" s="17">
         <v>15.12</v>
       </c>
-      <c r="AD39">
+      <c r="AD39" s="17">
         <v>0.53690000000000004</v>
       </c>
-      <c r="AE39">
+      <c r="AE39" s="17">
         <v>0.93310000000000004</v>
       </c>
-      <c r="AF39">
+      <c r="AF39" s="17">
         <v>0.27600000000000002</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" s="17">
         <v>0.28170000000000001</v>
       </c>
-      <c r="AH39">
+      <c r="AH39" s="17">
         <v>0.30056412669889798</v>
       </c>
-      <c r="AI39">
+      <c r="AI39" s="17">
         <v>-0.41257053801265298</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AJ39" s="22">
         <v>-0.97909010203152103</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>11</v>
       </c>
@@ -3528,40 +3450,40 @@
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="10"/>
-      <c r="Y40" t="s">
+      <c r="Y40" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="Z40" s="24">
         <v>0.57469999999999999</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="24">
         <v>45.97</v>
       </c>
-      <c r="AB40">
+      <c r="AB40" s="24">
         <v>37.76</v>
       </c>
-      <c r="AC40">
+      <c r="AC40" s="24">
         <v>32.82</v>
       </c>
-      <c r="AD40">
+      <c r="AD40" s="24">
         <v>0.22589999999999999</v>
       </c>
-      <c r="AE40">
+      <c r="AE40" s="24">
         <v>0.87749999999999995</v>
       </c>
-      <c r="AF40">
+      <c r="AF40" s="24">
         <v>0.1192</v>
       </c>
-      <c r="AG40">
+      <c r="AG40" s="24">
         <v>0.1318</v>
       </c>
-      <c r="AH40">
+      <c r="AH40" s="24">
         <v>5.9010086883908998E-2</v>
       </c>
-      <c r="AI40">
+      <c r="AI40" s="24">
         <v>-0.13982406004452899</v>
       </c>
-      <c r="AJ40" s="1">
+      <c r="AJ40" s="25">
         <v>-0.99119653575192901</v>
       </c>
     </row>
@@ -3631,53 +3553,6 @@
       </c>
       <c r="W41" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z41">
-        <f>STDEV(Z34:Z40)</f>
-        <v>0.25779998984077701</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" ref="AA41:AJ41" si="4">STDEV(AA34:AA40)</f>
-        <v>13.156288556102307</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="4"/>
-        <v>12.589856839459898</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="4"/>
-        <v>11.489764596204331</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="4"/>
-        <v>0.23449930957355972</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="4"/>
-        <v>4.8442420410608054E-2</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="4"/>
-        <v>9.8753690708608358E-2</v>
-      </c>
-      <c r="AG41">
-        <f t="shared" si="4"/>
-        <v>0.11666172914721873</v>
-      </c>
-      <c r="AH41">
-        <f t="shared" si="4"/>
-        <v>0.10595114059865854</v>
-      </c>
-      <c r="AI41">
-        <f t="shared" si="4"/>
-        <v>0.13706497946941248</v>
-      </c>
-      <c r="AJ41">
-        <f t="shared" si="4"/>
-        <v>5.7562611817774442E-3</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
@@ -3715,53 +3590,6 @@
       </c>
       <c r="W42" s="1">
         <v>-0.99462355189863405</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z42">
-        <f>AVERAGE(Z34:Z40)</f>
-        <v>0.3457142857142857</v>
-      </c>
-      <c r="AA42">
-        <f t="shared" ref="AA42:AJ42" si="5">AVERAGE(AA34:AA40)</f>
-        <v>19.575714285714287</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="5"/>
-        <v>11.874285714285715</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="5"/>
-        <v>9.1428571428571423</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="5"/>
-        <v>0.67545714285714287</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" si="5"/>
-        <v>0.84361428571428576</v>
-      </c>
-      <c r="AF42">
-        <f t="shared" si="5"/>
-        <v>0.31818571428571424</v>
-      </c>
-      <c r="AG42">
-        <f t="shared" si="5"/>
-        <v>0.33972857142857149</v>
-      </c>
-      <c r="AH42">
-        <f t="shared" si="5"/>
-        <v>0.11302161334779463</v>
-      </c>
-      <c r="AI42">
-        <f t="shared" si="5"/>
-        <v>-0.18584887975498954</v>
-      </c>
-      <c r="AJ42">
-        <f t="shared" si="5"/>
-        <v>-0.99040344516485646</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
@@ -4067,16 +3895,16 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A14:K14"/>
     <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A34:K34"/>
     <mergeCell ref="A46:K46"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
